--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H2">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I2">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J2">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.282011666666667</v>
+        <v>2.321428666666667</v>
       </c>
       <c r="N2">
-        <v>3.846035</v>
+        <v>6.964286</v>
       </c>
       <c r="O2">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560363</v>
       </c>
       <c r="P2">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560362</v>
       </c>
       <c r="Q2">
-        <v>0.3052170642277778</v>
+        <v>2.595579332675778</v>
       </c>
       <c r="R2">
-        <v>2.74695357805</v>
+        <v>23.360213994082</v>
       </c>
       <c r="S2">
-        <v>0.0007541477604464912</v>
+        <v>0.003552730570961413</v>
       </c>
       <c r="T2">
-        <v>0.000754147760446491</v>
+        <v>0.003552730570961412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H3">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I3">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J3">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.660776</v>
       </c>
       <c r="O3">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="P3">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="Q3">
-        <v>0.2905151158311112</v>
+        <v>1.364365927412445</v>
       </c>
       <c r="R3">
-        <v>2.61463604248</v>
+        <v>12.279293346712</v>
       </c>
       <c r="S3">
-        <v>0.0007178213463726316</v>
+        <v>0.001867492347189911</v>
       </c>
       <c r="T3">
-        <v>0.0007178213463726315</v>
+        <v>0.00186749234718991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H4">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I4">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J4">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.08597433333333</v>
+        <v>22.38483066666667</v>
       </c>
       <c r="N4">
-        <v>57.257923</v>
+        <v>67.154492</v>
       </c>
       <c r="O4">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="P4">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="Q4">
-        <v>4.543925149365556</v>
+        <v>25.02838216746712</v>
       </c>
       <c r="R4">
-        <v>40.89532634429</v>
+        <v>225.255439507204</v>
       </c>
       <c r="S4">
-        <v>0.01122738986989657</v>
+        <v>0.03425790048050635</v>
       </c>
       <c r="T4">
-        <v>0.01122738986989656</v>
+        <v>0.03425790048050634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H5">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I5">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J5">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1319933333333333</v>
+        <v>0.1735863333333333</v>
       </c>
       <c r="N5">
-        <v>0.39598</v>
+        <v>0.520759</v>
       </c>
       <c r="O5">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="P5">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="Q5">
-        <v>0.03142453282222223</v>
+        <v>0.1940861270925556</v>
       </c>
       <c r="R5">
-        <v>0.2828207954</v>
+        <v>1.746775143833</v>
       </c>
       <c r="S5">
-        <v>7.764553109412721E-05</v>
+        <v>0.0002656577313745148</v>
       </c>
       <c r="T5">
-        <v>7.764553109412721E-05</v>
+        <v>0.0002656577313745148</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H6">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I6">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J6">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.65991666666667</v>
+        <v>44.03194066666666</v>
       </c>
       <c r="N6">
-        <v>103.97975</v>
+        <v>132.095822</v>
       </c>
       <c r="O6">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="P6">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="Q6">
-        <v>8.251717426944445</v>
+        <v>49.23192205432378</v>
       </c>
       <c r="R6">
-        <v>74.2654568425</v>
+        <v>443.087298488914</v>
       </c>
       <c r="S6">
-        <v>0.02038881486889382</v>
+        <v>0.06738678812381875</v>
       </c>
       <c r="T6">
-        <v>0.02038881486889381</v>
+        <v>0.06738678812381874</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H7">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I7">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J7">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.761961</v>
+        <v>11.18920233333333</v>
       </c>
       <c r="N7">
-        <v>89.285883</v>
+        <v>33.567607</v>
       </c>
       <c r="O7">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="P7">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="Q7">
-        <v>7.085628468343334</v>
+        <v>12.51059864235656</v>
       </c>
       <c r="R7">
-        <v>63.77065621509</v>
+        <v>112.595387781209</v>
       </c>
       <c r="S7">
-        <v>0.01750757564711123</v>
+        <v>0.01712403304271512</v>
       </c>
       <c r="T7">
-        <v>0.01750757564711123</v>
+        <v>0.01712403304271512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I8">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J8">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.282011666666667</v>
+        <v>2.321428666666667</v>
       </c>
       <c r="N8">
-        <v>3.846035</v>
+        <v>6.964286</v>
       </c>
       <c r="O8">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560363</v>
       </c>
       <c r="P8">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560362</v>
       </c>
       <c r="Q8">
-        <v>0.3559817348672223</v>
+        <v>0.6446011573975556</v>
       </c>
       <c r="R8">
-        <v>3.203835613805</v>
+        <v>5.801410416578001</v>
       </c>
       <c r="S8">
-        <v>0.0008795800090312888</v>
+        <v>0.0008823056221527821</v>
       </c>
       <c r="T8">
-        <v>0.0008795800090312887</v>
+        <v>0.0008823056221527819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I9">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J9">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.660776</v>
       </c>
       <c r="O9">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="P9">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="Q9">
-        <v>0.338834511760889</v>
+        <v>0.3388345117608889</v>
       </c>
       <c r="R9">
         <v>3.049510605848</v>
       </c>
       <c r="S9">
-        <v>0.000837211670497415</v>
+        <v>0.0004637838317154081</v>
       </c>
       <c r="T9">
-        <v>0.000837211670497415</v>
+        <v>0.000463783831715408</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I10">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J10">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.08597433333333</v>
+        <v>22.38483066666667</v>
       </c>
       <c r="N10">
-        <v>57.257923</v>
+        <v>67.154492</v>
       </c>
       <c r="O10">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="P10">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="Q10">
-        <v>5.299685199025444</v>
+        <v>6.215692932146223</v>
       </c>
       <c r="R10">
-        <v>47.697166791229</v>
+        <v>55.94123638931601</v>
       </c>
       <c r="S10">
-        <v>0.01309476497989562</v>
+        <v>0.008507804797852073</v>
       </c>
       <c r="T10">
-        <v>0.01309476497989562</v>
+        <v>0.008507804797852073</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I11">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J11">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1319933333333333</v>
+        <v>0.1735863333333333</v>
       </c>
       <c r="N11">
-        <v>0.39598</v>
+        <v>0.520759</v>
       </c>
       <c r="O11">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="P11">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="Q11">
-        <v>0.03665116083777778</v>
+        <v>0.04820046938411111</v>
       </c>
       <c r="R11">
-        <v>0.32986044754</v>
+        <v>0.433804224457</v>
       </c>
       <c r="S11">
-        <v>9.055978221108484E-05</v>
+        <v>6.597497481962409E-05</v>
       </c>
       <c r="T11">
-        <v>9.055978221108484E-05</v>
+        <v>6.597497481962409E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I12">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J12">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.65991666666667</v>
+        <v>44.03194066666666</v>
       </c>
       <c r="N12">
-        <v>103.97975</v>
+        <v>132.095822</v>
       </c>
       <c r="O12">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="P12">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="Q12">
-        <v>9.624169253805556</v>
+        <v>12.22653976998956</v>
       </c>
       <c r="R12">
-        <v>86.61752328425</v>
+        <v>110.038857929906</v>
       </c>
       <c r="S12">
-        <v>0.0237799472558287</v>
+        <v>0.01673522402921034</v>
       </c>
       <c r="T12">
-        <v>0.0237799472558287</v>
+        <v>0.01673522402921034</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I13">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J13">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.761961</v>
+        <v>11.18920233333333</v>
       </c>
       <c r="N13">
-        <v>89.285883</v>
+        <v>33.567607</v>
       </c>
       <c r="O13">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="P13">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="Q13">
-        <v>8.264132679367668</v>
+        <v>3.106954298440112</v>
       </c>
       <c r="R13">
-        <v>74.37719411430901</v>
+        <v>27.96258868596101</v>
       </c>
       <c r="S13">
-        <v>0.0204194911839093</v>
+        <v>0.004252681233699346</v>
       </c>
       <c r="T13">
-        <v>0.0204194911839093</v>
+        <v>0.004252681233699346</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H14">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I14">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J14">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.282011666666667</v>
+        <v>2.321428666666667</v>
       </c>
       <c r="N14">
-        <v>3.846035</v>
+        <v>6.964286</v>
       </c>
       <c r="O14">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560363</v>
       </c>
       <c r="P14">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560362</v>
       </c>
       <c r="Q14">
-        <v>0.9194643227172224</v>
+        <v>6.124591977455779</v>
       </c>
       <c r="R14">
-        <v>8.275178904455002</v>
+        <v>55.121327797102</v>
       </c>
       <c r="S14">
-        <v>0.002271864980885088</v>
+        <v>0.008383109265452817</v>
       </c>
       <c r="T14">
-        <v>0.002271864980885088</v>
+        <v>0.008383109265452816</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H15">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I15">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J15">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.660776</v>
       </c>
       <c r="O15">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="P15">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="Q15">
-        <v>0.8751748035208892</v>
+        <v>3.219390949892444</v>
       </c>
       <c r="R15">
-        <v>7.876573231688002</v>
+        <v>28.974518549032</v>
       </c>
       <c r="S15">
-        <v>0.002162431906434702</v>
+        <v>0.004406580258815807</v>
       </c>
       <c r="T15">
-        <v>0.002162431906434702</v>
+        <v>0.004406580258815806</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H16">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I16">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J16">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.08597433333333</v>
+        <v>22.38483066666667</v>
       </c>
       <c r="N16">
-        <v>57.257923</v>
+        <v>67.154492</v>
       </c>
       <c r="O16">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="P16">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="Q16">
-        <v>13.68854349775545</v>
+        <v>59.05757789862712</v>
       </c>
       <c r="R16">
-        <v>123.196891479799</v>
+        <v>531.5182010876441</v>
       </c>
       <c r="S16">
-        <v>0.03382243535015017</v>
+        <v>0.08083577327266242</v>
       </c>
       <c r="T16">
-        <v>0.03382243535015017</v>
+        <v>0.08083577327266241</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H17">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I17">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J17">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1319933333333333</v>
+        <v>0.1735863333333333</v>
       </c>
       <c r="N17">
-        <v>0.39598</v>
+        <v>0.520759</v>
       </c>
       <c r="O17">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="P17">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="Q17">
-        <v>0.09466619063777779</v>
+        <v>0.4579703351625556</v>
       </c>
       <c r="R17">
-        <v>0.8519957157400001</v>
+        <v>4.121733016463</v>
       </c>
       <c r="S17">
-        <v>0.0002339066324489707</v>
+        <v>0.0006268524293758101</v>
       </c>
       <c r="T17">
-        <v>0.0002339066324489707</v>
+        <v>0.00062685242937581</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H18">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I18">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J18">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>34.65991666666667</v>
+        <v>44.03194066666666</v>
       </c>
       <c r="N18">
-        <v>103.97975</v>
+        <v>132.095822</v>
       </c>
       <c r="O18">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="P18">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="Q18">
-        <v>24.85824242630556</v>
+        <v>116.1688379363838</v>
       </c>
       <c r="R18">
-        <v>223.72418183675</v>
+        <v>1045.519541427454</v>
       </c>
       <c r="S18">
-        <v>0.06142116562802633</v>
+        <v>0.159007500458167</v>
       </c>
       <c r="T18">
-        <v>0.06142116562802631</v>
+        <v>0.159007500458167</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H19">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I19">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J19">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.761961</v>
+        <v>11.18920233333333</v>
       </c>
       <c r="N19">
-        <v>89.285883</v>
+        <v>33.567607</v>
       </c>
       <c r="O19">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="P19">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="Q19">
-        <v>21.34540739769767</v>
+        <v>29.52031213746656</v>
       </c>
       <c r="R19">
-        <v>192.108666579279</v>
+        <v>265.682809237199</v>
       </c>
       <c r="S19">
-        <v>0.05274145213839791</v>
+        <v>0.04040628389770019</v>
       </c>
       <c r="T19">
-        <v>0.05274145213839791</v>
+        <v>0.04040628389770018</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H20">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I20">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J20">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.282011666666667</v>
+        <v>2.321428666666667</v>
       </c>
       <c r="N20">
-        <v>3.846035</v>
+        <v>6.964286</v>
       </c>
       <c r="O20">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560363</v>
       </c>
       <c r="P20">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560362</v>
       </c>
       <c r="Q20">
-        <v>0.9522393783127779</v>
+        <v>3.779698309826445</v>
       </c>
       <c r="R20">
-        <v>8.570154404815002</v>
+        <v>34.017284788438</v>
       </c>
       <c r="S20">
-        <v>0.002352847460807808</v>
+        <v>0.005173507727266588</v>
       </c>
       <c r="T20">
-        <v>0.002352847460807807</v>
+        <v>0.005173507727266587</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H21">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I21">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J21">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.660776</v>
       </c>
       <c r="O21">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="P21">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="Q21">
-        <v>0.9063711230871113</v>
+        <v>1.986797908623111</v>
       </c>
       <c r="R21">
-        <v>8.157340107784002</v>
+        <v>17.881181177608</v>
       </c>
       <c r="S21">
-        <v>0.002239513555177258</v>
+        <v>0.002719453641592558</v>
       </c>
       <c r="T21">
-        <v>0.002239513555177257</v>
+        <v>0.002719453641592557</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H22">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I22">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J22">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>19.08597433333333</v>
+        <v>22.38483066666667</v>
       </c>
       <c r="N22">
-        <v>57.257923</v>
+        <v>67.154492</v>
       </c>
       <c r="O22">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="P22">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="Q22">
-        <v>14.17648279357856</v>
+        <v>36.44648136358178</v>
       </c>
       <c r="R22">
-        <v>127.588345142207</v>
+        <v>328.018332272236</v>
       </c>
       <c r="S22">
-        <v>0.03502806364000301</v>
+        <v>0.04988656170677974</v>
       </c>
       <c r="T22">
-        <v>0.03502806364000301</v>
+        <v>0.04988656170677973</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H23">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I23">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J23">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.1319933333333333</v>
+        <v>0.1735863333333333</v>
       </c>
       <c r="N23">
-        <v>0.39598</v>
+        <v>0.520759</v>
       </c>
       <c r="O23">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="P23">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="Q23">
-        <v>0.09804064420222224</v>
+        <v>0.2826293911718889</v>
       </c>
       <c r="R23">
-        <v>0.8823657978200001</v>
+        <v>2.543664520547</v>
       </c>
       <c r="S23">
-        <v>0.0002422444251107116</v>
+        <v>0.0003868523938482165</v>
       </c>
       <c r="T23">
-        <v>0.0002422444251107116</v>
+        <v>0.0003868523938482165</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H24">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I24">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J24">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>34.65991666666667</v>
+        <v>44.03194066666666</v>
       </c>
       <c r="N24">
-        <v>103.97975</v>
+        <v>132.095822</v>
       </c>
       <c r="O24">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="P24">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="Q24">
-        <v>25.74433474919445</v>
+        <v>71.69182241345844</v>
       </c>
       <c r="R24">
-        <v>231.69901274275</v>
+        <v>645.226401721126</v>
       </c>
       <c r="S24">
-        <v>0.06361057316507276</v>
+        <v>0.09812904809719643</v>
       </c>
       <c r="T24">
-        <v>0.06361057316507275</v>
+        <v>0.09812904809719641</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H25">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I25">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J25">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.761961</v>
+        <v>11.18920233333333</v>
       </c>
       <c r="N25">
-        <v>89.285883</v>
+        <v>33.567607</v>
       </c>
       <c r="O25">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="P25">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="Q25">
-        <v>22.10628185131634</v>
+        <v>18.21800934694789</v>
       </c>
       <c r="R25">
-        <v>198.956536661847</v>
+        <v>163.962084122531</v>
       </c>
       <c r="S25">
-        <v>0.05462146420990266</v>
+        <v>0.02493612040061939</v>
       </c>
       <c r="T25">
-        <v>0.05462146420990266</v>
+        <v>0.02493612040061939</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H26">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I26">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J26">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.282011666666667</v>
+        <v>2.321428666666667</v>
       </c>
       <c r="N26">
-        <v>3.846035</v>
+        <v>6.964286</v>
       </c>
       <c r="O26">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560363</v>
       </c>
       <c r="P26">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560362</v>
       </c>
       <c r="Q26">
-        <v>1.346537450536111</v>
+        <v>3.994852961510445</v>
       </c>
       <c r="R26">
-        <v>12.118837054825</v>
+        <v>35.953676653594</v>
       </c>
       <c r="S26">
-        <v>0.003327101665329223</v>
+        <v>0.005468003256222082</v>
       </c>
       <c r="T26">
-        <v>0.003327101665329222</v>
+        <v>0.005468003256222081</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H27">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I27">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J27">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.660776</v>
       </c>
       <c r="O27">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="P27">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="Q27">
-        <v>1.281676319124444</v>
+        <v>2.099893922367111</v>
       </c>
       <c r="R27">
-        <v>11.53508687212</v>
+        <v>18.899045301304</v>
       </c>
       <c r="S27">
-        <v>0.003166839076086737</v>
+        <v>0.002874255176812045</v>
       </c>
       <c r="T27">
-        <v>0.003166839076086736</v>
+        <v>0.002874255176812044</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H28">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I28">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J28">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>19.08597433333333</v>
+        <v>22.38483066666667</v>
       </c>
       <c r="N28">
-        <v>57.257923</v>
+        <v>67.154492</v>
       </c>
       <c r="O28">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="P28">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="Q28">
-        <v>20.04660323148722</v>
+        <v>38.52115223942978</v>
       </c>
       <c r="R28">
-        <v>180.419429083385</v>
+        <v>346.690370154868</v>
       </c>
       <c r="S28">
-        <v>0.04953229259915534</v>
+        <v>0.05272629253392806</v>
       </c>
       <c r="T28">
-        <v>0.04953229259915534</v>
+        <v>0.05272629253392806</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H29">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I29">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J29">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.1319933333333333</v>
+        <v>0.1735863333333333</v>
       </c>
       <c r="N29">
-        <v>0.39598</v>
+        <v>0.520759</v>
       </c>
       <c r="O29">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="P29">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="Q29">
-        <v>0.1386367777888889</v>
+        <v>0.2987177197178889</v>
       </c>
       <c r="R29">
-        <v>1.2477310001</v>
+        <v>2.688459477461</v>
       </c>
       <c r="S29">
-        <v>0.0003425516713802827</v>
+        <v>0.0004088734879220863</v>
       </c>
       <c r="T29">
-        <v>0.0003425516713802827</v>
+        <v>0.0004088734879220862</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H30">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I30">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J30">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>34.65991666666667</v>
+        <v>44.03194066666666</v>
       </c>
       <c r="N30">
-        <v>103.97975</v>
+        <v>132.095822</v>
       </c>
       <c r="O30">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="P30">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="Q30">
-        <v>36.40440803902777</v>
+        <v>75.77279073832644</v>
       </c>
       <c r="R30">
-        <v>327.6396723512499</v>
+        <v>681.955116644938</v>
       </c>
       <c r="S30">
-        <v>0.08995009129805534</v>
+        <v>0.1037149227974458</v>
       </c>
       <c r="T30">
-        <v>0.08995009129805533</v>
+        <v>0.1037149227974458</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H31">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I31">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J31">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.761961</v>
+        <v>11.18920233333333</v>
       </c>
       <c r="N31">
-        <v>89.285883</v>
+        <v>33.567607</v>
       </c>
       <c r="O31">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="P31">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="Q31">
-        <v>31.25993010039832</v>
+        <v>19.25504699760589</v>
       </c>
       <c r="R31">
-        <v>281.3393709035849</v>
+        <v>173.295422978453</v>
       </c>
       <c r="S31">
-        <v>0.07723882128469713</v>
+        <v>0.0263555782142754</v>
       </c>
       <c r="T31">
-        <v>0.07723882128469713</v>
+        <v>0.02635557821427539</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H32">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I32">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J32">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.282011666666667</v>
+        <v>2.321428666666667</v>
       </c>
       <c r="N32">
-        <v>3.846035</v>
+        <v>6.964286</v>
       </c>
       <c r="O32">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560363</v>
       </c>
       <c r="P32">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560362</v>
       </c>
       <c r="Q32">
-        <v>2.143781191011667</v>
+        <v>3.716307831035333</v>
       </c>
       <c r="R32">
-        <v>19.294030719105</v>
+        <v>33.446770479318</v>
       </c>
       <c r="S32">
-        <v>0.005296977048708608</v>
+        <v>0.005086741243547944</v>
       </c>
       <c r="T32">
-        <v>0.005296977048708607</v>
+        <v>0.005086741243547944</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H33">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I33">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J33">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.660776</v>
       </c>
       <c r="O33">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="P33">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="Q33">
-        <v>2.040517762658667</v>
+        <v>1.953476711965333</v>
       </c>
       <c r="R33">
-        <v>18.364659863928</v>
+        <v>17.581290407688</v>
       </c>
       <c r="S33">
-        <v>0.005041827870121646</v>
+        <v>0.002673844851086022</v>
       </c>
       <c r="T33">
-        <v>0.005041827870121645</v>
+        <v>0.002673844851086021</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H34">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I34">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J34">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>19.08597433333333</v>
+        <v>22.38483066666667</v>
       </c>
       <c r="N34">
-        <v>57.257923</v>
+        <v>67.154492</v>
       </c>
       <c r="O34">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="P34">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="Q34">
-        <v>31.91558536617434</v>
+        <v>35.83522625417734</v>
       </c>
       <c r="R34">
-        <v>287.240268295569</v>
+        <v>322.517036287596</v>
       </c>
       <c r="S34">
-        <v>0.07885885177532828</v>
+        <v>0.04904989889069898</v>
       </c>
       <c r="T34">
-        <v>0.07885885177532828</v>
+        <v>0.04904989889069898</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H35">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I35">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J35">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.1319933333333333</v>
+        <v>0.1735863333333333</v>
       </c>
       <c r="N35">
-        <v>0.39598</v>
+        <v>0.520759</v>
       </c>
       <c r="O35">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="P35">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="Q35">
-        <v>0.2207193839933334</v>
+        <v>0.2778893270296666</v>
       </c>
       <c r="R35">
-        <v>1.98647445594</v>
+        <v>2.501003943267</v>
       </c>
       <c r="S35">
-        <v>0.0005453660644657769</v>
+        <v>0.0003803643737848766</v>
       </c>
       <c r="T35">
-        <v>0.0005453660644657769</v>
+        <v>0.0003803643737848766</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H36">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I36">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J36">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>34.65991666666667</v>
+        <v>44.03194066666666</v>
       </c>
       <c r="N36">
-        <v>103.97975</v>
+        <v>132.095822</v>
       </c>
       <c r="O36">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="P36">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="Q36">
-        <v>57.95834730991668</v>
+        <v>70.48945688698733</v>
       </c>
       <c r="R36">
-        <v>521.6251257892501</v>
+        <v>634.405111982886</v>
       </c>
       <c r="S36">
-        <v>0.1432067959029127</v>
+        <v>0.09648329575605709</v>
       </c>
       <c r="T36">
-        <v>0.1432067959029127</v>
+        <v>0.09648329575605709</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H37">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I37">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J37">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.761961</v>
+        <v>11.18920233333333</v>
       </c>
       <c r="N37">
-        <v>89.285883</v>
+        <v>33.567607</v>
       </c>
       <c r="O37">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="P37">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="Q37">
-        <v>49.76798094616101</v>
+        <v>17.91246952856567</v>
       </c>
       <c r="R37">
-        <v>447.9118285154491</v>
+        <v>161.212225757091</v>
       </c>
       <c r="S37">
-        <v>0.1229695707461534</v>
+        <v>0.02451790908272702</v>
       </c>
       <c r="T37">
-        <v>0.1229695707461534</v>
+        <v>0.02451790908272702</v>
       </c>
     </row>
   </sheetData>
